--- a/data/covid.xlsx
+++ b/data/covid.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,9 +387,7 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
@@ -397,9 +395,7 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
@@ -407,9 +403,7 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
@@ -417,9 +411,7 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
@@ -427,9 +419,7 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
@@ -437,9 +427,7 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
@@ -447,9 +435,7 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
@@ -457,9 +443,7 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
@@ -467,9 +451,7 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
@@ -477,9 +459,7 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
@@ -487,9 +467,7 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
@@ -497,9 +475,7 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
@@ -507,9 +483,7 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
@@ -517,9 +491,7 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
@@ -527,9 +499,7 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
@@ -537,9 +507,7 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
@@ -547,9 +515,7 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
@@ -557,9 +523,7 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
@@ -567,9 +531,7 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
@@ -577,9 +539,7 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
@@ -587,9 +547,7 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
@@ -597,9 +555,7 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
@@ -607,9 +563,7 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
@@ -617,9 +571,7 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
@@ -627,9 +579,7 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
@@ -637,9 +587,7 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
@@ -647,9 +595,7 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
@@ -657,9 +603,7 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
@@ -667,9 +611,7 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
@@ -677,9 +619,7 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>29</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
@@ -687,9 +627,7 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>30</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
@@ -697,9 +635,7 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>31</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
@@ -707,9 +643,7 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
@@ -717,9 +651,7 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>33</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
@@ -727,9 +659,7 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>34</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
@@ -737,9 +667,7 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>35</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
@@ -747,9 +675,7 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>36</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
@@ -757,9 +683,7 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>37</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
@@ -767,9 +691,7 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>38</v>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
@@ -777,9 +699,7 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>39</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
@@ -787,9 +707,7 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>40</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
     </row>
@@ -798,7 +716,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C43" t="n">
         <v>92</v>
@@ -812,7 +730,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="C44" t="n">
         <v>276</v>
@@ -826,7 +744,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>43</v>
+        <v>296</v>
       </c>
       <c r="C45" t="n">
         <v>296</v>
@@ -840,7 +758,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="C46" t="n">
         <v>177</v>
@@ -854,7 +772,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="C47" t="n">
         <v>286</v>
@@ -868,7 +786,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>46</v>
+        <v>372</v>
       </c>
       <c r="C48" t="n">
         <v>372</v>
@@ -882,7 +800,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>497</v>
       </c>
       <c r="C49" t="n">
         <v>497</v>
@@ -896,7 +814,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>48</v>
+        <v>595</v>
       </c>
       <c r="C50" t="n">
         <v>595</v>
@@ -910,7 +828,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>49</v>
+        <v>788</v>
       </c>
       <c r="C51" t="n">
         <v>788</v>
@@ -924,7 +842,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>50</v>
+        <v>813</v>
       </c>
       <c r="C52" t="n">
         <v>813</v>
@@ -938,7 +856,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>51</v>
+        <v>946</v>
       </c>
       <c r="C53" t="n">
         <v>946</v>
@@ -952,7 +870,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>52</v>
+        <v>1222</v>
       </c>
       <c r="C54" t="n">
         <v>1222</v>
@@ -966,7 +884,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>53</v>
+        <v>1085</v>
       </c>
       <c r="C55" t="n">
         <v>1085</v>
@@ -980,7 +898,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>54</v>
+        <v>1404</v>
       </c>
       <c r="C56" t="n">
         <v>1404</v>
@@ -994,7 +912,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>55</v>
+        <v>1861</v>
       </c>
       <c r="C57" t="n">
         <v>1861</v>
@@ -1008,7 +926,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>56</v>
+        <v>1630</v>
       </c>
       <c r="C58" t="n">
         <v>1630</v>
@@ -1022,7 +940,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>57</v>
+        <v>1676</v>
       </c>
       <c r="C59" t="n">
         <v>1676</v>
@@ -1036,7 +954,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>58</v>
+        <v>1717</v>
       </c>
       <c r="C60" t="n">
         <v>1717</v>
@@ -1050,7 +968,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>59</v>
+        <v>3856</v>
       </c>
       <c r="C61" t="n">
         <v>3856</v>
@@ -1064,7 +982,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>60</v>
+        <v>2430</v>
       </c>
       <c r="C62" t="n">
         <v>2430</v>
@@ -1078,7 +996,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>61</v>
+        <v>2929</v>
       </c>
       <c r="C63" t="n">
         <v>2929</v>
@@ -1092,7 +1010,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>62</v>
+        <v>3922</v>
       </c>
       <c r="C64" t="n">
         <v>3922</v>
@@ -1106,7 +1024,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>63</v>
+        <v>3809</v>
       </c>
       <c r="C65" t="n">
         <v>3809</v>
@@ -1120,7 +1038,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>64</v>
+        <v>4611</v>
       </c>
       <c r="C66" t="n">
         <v>4611</v>
@@ -1134,7 +1052,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>65</v>
+        <v>2599</v>
       </c>
       <c r="C67" t="n">
         <v>2599</v>
@@ -1148,7 +1066,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>66</v>
+        <v>4376</v>
       </c>
       <c r="C68" t="n">
         <v>4376</v>
@@ -1162,7 +1080,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>67</v>
+        <v>7578</v>
       </c>
       <c r="C69" t="n">
         <v>7578</v>
@@ -1176,7 +1094,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68</v>
+        <v>15796</v>
       </c>
       <c r="C70" t="n">
         <v>15796</v>
@@ -1190,7 +1108,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>69</v>
+        <v>3609</v>
       </c>
       <c r="C71" t="n">
         <v>3609</v>
@@ -1204,7 +1122,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>70</v>
+        <v>6813</v>
       </c>
       <c r="C72" t="n">
         <v>6813</v>
@@ -1218,7 +1136,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>71</v>
+        <v>5697</v>
       </c>
       <c r="C73" t="n">
         <v>5697</v>
@@ -1232,7 +1150,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>72</v>
+        <v>2618</v>
       </c>
       <c r="C74" t="n">
         <v>2618</v>
@@ -1246,7 +1164,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>73</v>
+        <v>4979</v>
       </c>
       <c r="C75" t="n">
         <v>4979</v>
@@ -1260,7 +1178,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>74</v>
+        <v>5864</v>
       </c>
       <c r="C76" t="n">
         <v>5864</v>
@@ -1274,7 +1192,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>75</v>
+        <v>5798</v>
       </c>
       <c r="C77" t="n">
         <v>5798</v>
@@ -1288,7 +1206,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>76</v>
+        <v>6238</v>
       </c>
       <c r="C78" t="n">
         <v>6238</v>
@@ -1302,7 +1220,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>77</v>
+        <v>6068</v>
       </c>
       <c r="C79" t="n">
         <v>6068</v>
@@ -1316,7 +1234,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>78</v>
+        <v>4573</v>
       </c>
       <c r="C80" t="n">
         <v>4573</v>
@@ -1330,7 +1248,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="C81" t="n">
         <v>452</v>
@@ -1344,7 +1262,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>80</v>
+        <v>3665</v>
       </c>
       <c r="C82" t="n">
         <v>3665</v>
@@ -1358,7 +1276,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>81</v>
+        <v>5955</v>
       </c>
       <c r="C83" t="n">
         <v>5955</v>
@@ -1372,7 +1290,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>82</v>
+        <v>3217</v>
       </c>
       <c r="C84" t="n">
         <v>3217</v>
@@ -1386,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>83</v>
+        <v>12590</v>
       </c>
       <c r="C85" t="n">
         <v>12590</v>
@@ -1400,7 +1318,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>84</v>
+        <v>1909</v>
       </c>
       <c r="C86" t="n">
         <v>1909</v>
@@ -1414,7 +1332,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>85</v>
+        <v>3824</v>
       </c>
       <c r="C87" t="n">
         <v>3824</v>
@@ -1428,7 +1346,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>86</v>
+        <v>1101</v>
       </c>
       <c r="C88" t="n">
         <v>1101</v>
@@ -1442,7 +1360,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>87</v>
+        <v>2489</v>
       </c>
       <c r="C89" t="n">
         <v>2489</v>
@@ -1456,7 +1374,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>88</v>
+        <v>490</v>
       </c>
       <c r="C90" t="n">
         <v>490</v>
@@ -1470,7 +1388,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>89</v>
+        <v>2177</v>
       </c>
       <c r="C91" t="n">
         <v>2177</v>
@@ -1484,7 +1402,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>90</v>
+        <v>490</v>
       </c>
       <c r="C92" t="n">
         <v>490</v>
@@ -1498,7 +1416,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C93" t="n">
         <v>133</v>
@@ -1512,7 +1430,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>92</v>
+        <v>1643</v>
       </c>
       <c r="C94" t="n">
         <v>1643</v>
@@ -1526,7 +1444,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>93</v>
+        <v>1660</v>
       </c>
       <c r="C95" t="n">
         <v>1660</v>
@@ -1540,7 +1458,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>94</v>
+        <v>612</v>
       </c>
       <c r="C96" t="n">
         <v>612</v>
@@ -1554,7 +1472,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>95</v>
+        <v>326</v>
       </c>
       <c r="C97" t="n">
         <v>326</v>
@@ -1568,7 +1486,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C98" t="n">
         <v>69</v>
@@ -1582,7 +1500,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>97</v>
+        <v>1070</v>
       </c>
       <c r="C99" t="n">
         <v>1070</v>
@@ -1596,7 +1514,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>98</v>
+        <v>758</v>
       </c>
       <c r="C100" t="n">
         <v>758</v>
@@ -1610,7 +1528,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="C101" t="n">
         <v>168</v>
@@ -1624,7 +1542,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>100</v>
+        <v>1050</v>
       </c>
       <c r="C102" t="n">
         <v>1050</v>
@@ -1638,7 +1556,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="C103" t="n">
         <v>297</v>
@@ -1652,7 +1570,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>102</v>
+        <v>769</v>
       </c>
       <c r="C104" t="n">
         <v>769</v>
@@ -1666,7 +1584,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>103</v>
+        <v>1089</v>
       </c>
       <c r="C105" t="n">
         <v>1089</v>
@@ -1680,7 +1598,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>104</v>
+        <v>3640</v>
       </c>
       <c r="C106" t="n">
         <v>3640</v>
@@ -1694,7 +1612,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>105</v>
+        <v>600</v>
       </c>
       <c r="C107" t="n">
         <v>600</v>
@@ -1708,7 +1626,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>106</v>
+        <v>1288</v>
       </c>
       <c r="C108" t="n">
         <v>1288</v>
@@ -1722,13 +1640,521 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>107</v>
+        <v>579</v>
       </c>
       <c r="C109" t="n">
         <v>579</v>
       </c>
       <c r="D109" t="n">
         <v>80</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>312</v>
+      </c>
+      <c r="C110" t="n">
+        <v>312</v>
+      </c>
+      <c r="D110" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>453</v>
+      </c>
+      <c r="C111" t="n">
+        <v>453</v>
+      </c>
+      <c r="D111" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>802</v>
+      </c>
+      <c r="C112" t="n">
+        <v>802</v>
+      </c>
+      <c r="D112" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>744</v>
+      </c>
+      <c r="C114" t="n">
+        <v>744</v>
+      </c>
+      <c r="D114" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>636</v>
+      </c>
+      <c r="C115" t="n">
+        <v>636</v>
+      </c>
+      <c r="D115" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>64</v>
+      </c>
+      <c r="C117" t="n">
+        <v>64</v>
+      </c>
+      <c r="D117" t="n">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>358</v>
+      </c>
+      <c r="C118" t="n">
+        <v>358</v>
+      </c>
+      <c r="D118" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>882</v>
+      </c>
+      <c r="C119" t="n">
+        <v>882</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>766</v>
+      </c>
+      <c r="C120" t="n">
+        <v>766</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>251</v>
+      </c>
+      <c r="C121" t="n">
+        <v>251</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>393</v>
+      </c>
+      <c r="C122" t="n">
+        <v>393</v>
+      </c>
+      <c r="D122" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>250</v>
+      </c>
+      <c r="C123" t="n">
+        <v>250</v>
+      </c>
+      <c r="D123" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>115</v>
+      </c>
+      <c r="C124" t="n">
+        <v>115</v>
+      </c>
+      <c r="D124" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>358</v>
+      </c>
+      <c r="C125" t="n">
+        <v>358</v>
+      </c>
+      <c r="D125" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2296</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2296</v>
+      </c>
+      <c r="D128" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>597</v>
+      </c>
+      <c r="C129" t="n">
+        <v>597</v>
+      </c>
+      <c r="D129" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1828</v>
+      </c>
+      <c r="D130" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>257</v>
+      </c>
+      <c r="C131" t="n">
+        <v>257</v>
+      </c>
+      <c r="D131" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>338</v>
+      </c>
+      <c r="C132" t="n">
+        <v>338</v>
+      </c>
+      <c r="D132" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>591</v>
+      </c>
+      <c r="C135" t="n">
+        <v>591</v>
+      </c>
+      <c r="D135" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>611</v>
+      </c>
+      <c r="C136" t="n">
+        <v>611</v>
+      </c>
+      <c r="D136" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>579</v>
+      </c>
+      <c r="C137" t="n">
+        <v>579</v>
+      </c>
+      <c r="D137" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>343</v>
+      </c>
+      <c r="C138" t="n">
+        <v>343</v>
+      </c>
+      <c r="D138" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>211</v>
+      </c>
+      <c r="C139" t="n">
+        <v>211</v>
+      </c>
+      <c r="D139" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>403</v>
+      </c>
+      <c r="C140" t="n">
+        <v>403</v>
+      </c>
+      <c r="D140" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>545</v>
+      </c>
+      <c r="C141" t="n">
+        <v>545</v>
+      </c>
+      <c r="D141" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>619</v>
+      </c>
+      <c r="C142" t="n">
+        <v>619</v>
+      </c>
+      <c r="D142" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>726</v>
+      </c>
+      <c r="C143" t="n">
+        <v>726</v>
+      </c>
+      <c r="D143" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>526</v>
+      </c>
+      <c r="C144" t="n">
+        <v>526</v>
+      </c>
+      <c r="D144" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>407</v>
+      </c>
+      <c r="C145" t="n">
+        <v>407</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>152</v>
+      </c>
+      <c r="C146" t="n">
+        <v>152</v>
+      </c>
+      <c r="D146" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>646</v>
+      </c>
+      <c r="C147" t="n">
+        <v>646</v>
+      </c>
+      <c r="D147" t="n">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid.xlsx
+++ b/data/covid.xlsx
@@ -387,336 +387,582 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>19</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>43</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>61</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>81</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C43" t="n">
         <v>92</v>
@@ -730,7 +976,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="C44" t="n">
         <v>276</v>
@@ -744,7 +990,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="C45" t="n">
         <v>296</v>
@@ -758,7 +1004,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="C46" t="n">
         <v>177</v>
@@ -772,7 +1018,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="C47" t="n">
         <v>286</v>
@@ -786,7 +1032,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>372</v>
+        <v>46</v>
       </c>
       <c r="C48" t="n">
         <v>372</v>
@@ -800,7 +1046,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>497</v>
+        <v>47</v>
       </c>
       <c r="C49" t="n">
         <v>497</v>
@@ -814,7 +1060,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>595</v>
+        <v>48</v>
       </c>
       <c r="C50" t="n">
         <v>595</v>
@@ -828,7 +1074,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>788</v>
+        <v>49</v>
       </c>
       <c r="C51" t="n">
         <v>788</v>
@@ -842,7 +1088,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>813</v>
+        <v>50</v>
       </c>
       <c r="C52" t="n">
         <v>813</v>
@@ -856,7 +1102,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>946</v>
+        <v>51</v>
       </c>
       <c r="C53" t="n">
         <v>946</v>
@@ -870,7 +1116,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1222</v>
+        <v>52</v>
       </c>
       <c r="C54" t="n">
         <v>1222</v>
@@ -884,7 +1130,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1085</v>
+        <v>53</v>
       </c>
       <c r="C55" t="n">
         <v>1085</v>
@@ -898,7 +1144,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1404</v>
+        <v>54</v>
       </c>
       <c r="C56" t="n">
         <v>1404</v>
@@ -912,7 +1158,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1861</v>
+        <v>55</v>
       </c>
       <c r="C57" t="n">
         <v>1861</v>
@@ -926,7 +1172,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1630</v>
+        <v>56</v>
       </c>
       <c r="C58" t="n">
         <v>1630</v>
@@ -940,7 +1186,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1676</v>
+        <v>57</v>
       </c>
       <c r="C59" t="n">
         <v>1676</v>
@@ -954,7 +1200,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1717</v>
+        <v>58</v>
       </c>
       <c r="C60" t="n">
         <v>1717</v>
@@ -968,7 +1214,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3856</v>
+        <v>59</v>
       </c>
       <c r="C61" t="n">
         <v>3856</v>
@@ -982,7 +1228,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2430</v>
+        <v>60</v>
       </c>
       <c r="C62" t="n">
         <v>2430</v>
@@ -996,7 +1242,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2929</v>
+        <v>61</v>
       </c>
       <c r="C63" t="n">
         <v>2929</v>
@@ -1010,7 +1256,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3922</v>
+        <v>62</v>
       </c>
       <c r="C64" t="n">
         <v>3922</v>
@@ -1024,7 +1270,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3809</v>
+        <v>63</v>
       </c>
       <c r="C65" t="n">
         <v>3809</v>
@@ -1038,7 +1284,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4611</v>
+        <v>64</v>
       </c>
       <c r="C66" t="n">
         <v>4611</v>
@@ -1052,7 +1298,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2599</v>
+        <v>65</v>
       </c>
       <c r="C67" t="n">
         <v>2599</v>
@@ -1066,7 +1312,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4376</v>
+        <v>66</v>
       </c>
       <c r="C68" t="n">
         <v>4376</v>
@@ -1080,7 +1326,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7578</v>
+        <v>67</v>
       </c>
       <c r="C69" t="n">
         <v>7578</v>
@@ -1094,7 +1340,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15796</v>
+        <v>68</v>
       </c>
       <c r="C70" t="n">
         <v>15796</v>
@@ -1108,7 +1354,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3609</v>
+        <v>69</v>
       </c>
       <c r="C71" t="n">
         <v>3609</v>
@@ -1122,7 +1368,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6813</v>
+        <v>70</v>
       </c>
       <c r="C72" t="n">
         <v>6813</v>
@@ -1136,7 +1382,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5697</v>
+        <v>71</v>
       </c>
       <c r="C73" t="n">
         <v>5697</v>
@@ -1150,7 +1396,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2618</v>
+        <v>72</v>
       </c>
       <c r="C74" t="n">
         <v>2618</v>
@@ -1164,7 +1410,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4979</v>
+        <v>73</v>
       </c>
       <c r="C75" t="n">
         <v>4979</v>
@@ -1178,7 +1424,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5864</v>
+        <v>74</v>
       </c>
       <c r="C76" t="n">
         <v>5864</v>
@@ -1192,7 +1438,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5798</v>
+        <v>75</v>
       </c>
       <c r="C77" t="n">
         <v>5798</v>
@@ -1206,7 +1452,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6238</v>
+        <v>76</v>
       </c>
       <c r="C78" t="n">
         <v>6238</v>
@@ -1220,7 +1466,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6068</v>
+        <v>77</v>
       </c>
       <c r="C79" t="n">
         <v>6068</v>
@@ -1234,7 +1480,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4573</v>
+        <v>78</v>
       </c>
       <c r="C80" t="n">
         <v>4573</v>
@@ -1248,7 +1494,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="C81" t="n">
         <v>452</v>
@@ -1262,7 +1508,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3665</v>
+        <v>80</v>
       </c>
       <c r="C82" t="n">
         <v>3665</v>
@@ -1276,7 +1522,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5955</v>
+        <v>81</v>
       </c>
       <c r="C83" t="n">
         <v>5955</v>
@@ -1290,7 +1536,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3217</v>
+        <v>82</v>
       </c>
       <c r="C84" t="n">
         <v>3217</v>
@@ -1304,7 +1550,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12590</v>
+        <v>83</v>
       </c>
       <c r="C85" t="n">
         <v>12590</v>
@@ -1318,7 +1564,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1909</v>
+        <v>84</v>
       </c>
       <c r="C86" t="n">
         <v>1909</v>
@@ -1332,7 +1578,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3824</v>
+        <v>85</v>
       </c>
       <c r="C87" t="n">
         <v>3824</v>
@@ -1346,7 +1592,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1101</v>
+        <v>86</v>
       </c>
       <c r="C88" t="n">
         <v>1101</v>
@@ -1360,7 +1606,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2489</v>
+        <v>87</v>
       </c>
       <c r="C89" t="n">
         <v>2489</v>
@@ -1374,7 +1620,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>490</v>
+        <v>88</v>
       </c>
       <c r="C90" t="n">
         <v>490</v>
@@ -1388,7 +1634,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2177</v>
+        <v>89</v>
       </c>
       <c r="C91" t="n">
         <v>2177</v>
@@ -1402,7 +1648,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>490</v>
+        <v>90</v>
       </c>
       <c r="C92" t="n">
         <v>490</v>
@@ -1416,7 +1662,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C93" t="n">
         <v>133</v>
@@ -1430,7 +1676,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1643</v>
+        <v>92</v>
       </c>
       <c r="C94" t="n">
         <v>1643</v>
@@ -1444,7 +1690,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1660</v>
+        <v>93</v>
       </c>
       <c r="C95" t="n">
         <v>1660</v>
@@ -1458,7 +1704,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>612</v>
+        <v>94</v>
       </c>
       <c r="C96" t="n">
         <v>612</v>
@@ -1472,7 +1718,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>326</v>
+        <v>95</v>
       </c>
       <c r="C97" t="n">
         <v>326</v>
@@ -1486,7 +1732,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C98" t="n">
         <v>69</v>
@@ -1500,7 +1746,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1070</v>
+        <v>97</v>
       </c>
       <c r="C99" t="n">
         <v>1070</v>
@@ -1514,7 +1760,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>758</v>
+        <v>98</v>
       </c>
       <c r="C100" t="n">
         <v>758</v>
@@ -1528,7 +1774,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C101" t="n">
         <v>168</v>
@@ -1542,7 +1788,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1050</v>
+        <v>100</v>
       </c>
       <c r="C102" t="n">
         <v>1050</v>
@@ -1556,7 +1802,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="C103" t="n">
         <v>297</v>
@@ -1570,7 +1816,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>769</v>
+        <v>102</v>
       </c>
       <c r="C104" t="n">
         <v>769</v>
@@ -1584,7 +1830,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1089</v>
+        <v>103</v>
       </c>
       <c r="C105" t="n">
         <v>1089</v>
@@ -1598,7 +1844,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3640</v>
+        <v>104</v>
       </c>
       <c r="C106" t="n">
         <v>3640</v>
@@ -1612,7 +1858,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>600</v>
+        <v>105</v>
       </c>
       <c r="C107" t="n">
         <v>600</v>
@@ -1626,7 +1872,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1288</v>
+        <v>106</v>
       </c>
       <c r="C108" t="n">
         <v>1288</v>
@@ -1640,7 +1886,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>579</v>
+        <v>107</v>
       </c>
       <c r="C109" t="n">
         <v>579</v>
@@ -1654,7 +1900,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="C110" t="n">
         <v>312</v>
@@ -1668,7 +1914,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>453</v>
+        <v>109</v>
       </c>
       <c r="C111" t="n">
         <v>453</v>
@@ -1682,7 +1928,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>802</v>
+        <v>110</v>
       </c>
       <c r="C112" t="n">
         <v>802</v>
@@ -1696,17 +1942,21 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
         <v>1</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>744</v>
+        <v>112</v>
       </c>
       <c r="C114" t="n">
         <v>744</v>
@@ -1720,7 +1970,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>636</v>
+        <v>113</v>
       </c>
       <c r="C115" t="n">
         <v>636</v>
@@ -1734,17 +1984,21 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
         <v>1</v>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C117" t="n">
         <v>64</v>
@@ -1758,7 +2012,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>358</v>
+        <v>116</v>
       </c>
       <c r="C118" t="n">
         <v>358</v>
@@ -1772,7 +2026,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>882</v>
+        <v>117</v>
       </c>
       <c r="C119" t="n">
         <v>882</v>
@@ -1786,7 +2040,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>766</v>
+        <v>118</v>
       </c>
       <c r="C120" t="n">
         <v>766</v>
@@ -1800,7 +2054,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="C121" t="n">
         <v>251</v>
@@ -1814,7 +2068,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>393</v>
+        <v>120</v>
       </c>
       <c r="C122" t="n">
         <v>393</v>
@@ -1828,7 +2082,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>250</v>
+        <v>121</v>
       </c>
       <c r="C123" t="n">
         <v>250</v>
@@ -1842,7 +2096,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C124" t="n">
         <v>115</v>
@@ -1856,7 +2110,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>358</v>
+        <v>123</v>
       </c>
       <c r="C125" t="n">
         <v>358</v>
@@ -1870,30 +2124,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
-      </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2296</v>
+        <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="D128" t="n">
         <v>66</v>
@@ -1904,7 +2166,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>597</v>
+        <v>127</v>
       </c>
       <c r="C129" t="n">
         <v>597</v>
@@ -1918,7 +2180,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1828</v>
+        <v>128</v>
       </c>
       <c r="C130" t="n">
         <v>1828</v>
@@ -1932,7 +2194,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="C131" t="n">
         <v>257</v>
@@ -1946,7 +2208,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="C132" t="n">
         <v>338</v>
@@ -1960,30 +2222,38 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
-      </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
+        <v>131</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
-      </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>591</v>
+        <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D135" t="n">
         <v>44</v>
@@ -1994,7 +2264,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>611</v>
+        <v>134</v>
       </c>
       <c r="C136" t="n">
         <v>611</v>
@@ -2008,7 +2278,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>579</v>
+        <v>135</v>
       </c>
       <c r="C137" t="n">
         <v>579</v>
@@ -2022,7 +2292,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>343</v>
+        <v>136</v>
       </c>
       <c r="C138" t="n">
         <v>343</v>
@@ -2036,7 +2306,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="C139" t="n">
         <v>211</v>
@@ -2050,7 +2320,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>403</v>
+        <v>138</v>
       </c>
       <c r="C140" t="n">
         <v>403</v>
@@ -2064,7 +2334,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>545</v>
+        <v>139</v>
       </c>
       <c r="C141" t="n">
         <v>545</v>
@@ -2078,7 +2348,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>619</v>
+        <v>140</v>
       </c>
       <c r="C142" t="n">
         <v>619</v>
@@ -2092,7 +2362,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>726</v>
+        <v>141</v>
       </c>
       <c r="C143" t="n">
         <v>726</v>
@@ -2106,7 +2376,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>526</v>
+        <v>142</v>
       </c>
       <c r="C144" t="n">
         <v>526</v>
@@ -2120,7 +2390,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>407</v>
+        <v>143</v>
       </c>
       <c r="C145" t="n">
         <v>407</v>
@@ -2134,7 +2404,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C146" t="n">
         <v>152</v>
@@ -2148,7 +2418,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>646</v>
+        <v>145</v>
       </c>
       <c r="C147" t="n">
         <v>646</v>
